--- a/data/light-reading-cloud/reading-cloud-book-feign-client_structure.xlsx
+++ b/data/light-reading-cloud/reading-cloud-book-feign-client_structure.xlsx
@@ -150,13 +150,13 @@
     <t>private</t>
   </si>
   <si>
+    <t>val$cause</t>
+  </si>
+  <si>
+    <t>java.lang.Throwable</t>
+  </si>
+  <si>
     <t>this$0</t>
-  </si>
-  <si>
-    <t>val$cause</t>
-  </si>
-  <si>
-    <t>java.lang.Throwable</t>
   </si>
   <si>
     <t>Source Class Name</t>
@@ -1024,7 +1024,7 @@
         <v>24</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>4</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4">
@@ -1032,13 +1032,13 @@
         <v>32</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C4" t="s" s="0">
         <v>24</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>44</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
